--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3719.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3719.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.353098229148773</v>
+        <v>1.388442635536194</v>
       </c>
       <c r="B1">
-        <v>2.841496025381352</v>
+        <v>3.437412261962891</v>
       </c>
       <c r="C1">
-        <v>6.399694333544134</v>
+        <v>3.438670635223389</v>
       </c>
       <c r="D1">
-        <v>1.985136108458294</v>
+        <v>1.620058655738831</v>
       </c>
       <c r="E1">
-        <v>1.032664467921822</v>
+        <v>1.227767705917358</v>
       </c>
     </row>
   </sheetData>
